--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B7668D-27B2-4A49-9902-CB75B3E66226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5D9A3-ABC4-471C-BF30-C204ECB46AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="84" windowWidth="17280" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,15 +421,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,19 +443,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,948 +773,1043 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>107</v>
       </c>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4" t="s">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="3"/>
-      <c r="B118" s="4" t="s">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+      <c r="B118" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="C118" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5D9A3-ABC4-471C-BF30-C204ECB46AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A6BBA8-A314-4644-94AF-9E990B2D07D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="84" windowWidth="17280" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,7 +902,7 @@
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>116</v>
       </c>
     </row>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A6BBA8-A314-4644-94AF-9E990B2D07D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355895B-951F-4C3C-A695-96BF5DA3651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="84" windowWidth="17280" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +951,7 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -973,7 +973,7 @@
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -984,7 +984,7 @@
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -995,7 +995,7 @@
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>116</v>
       </c>
     </row>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355895B-951F-4C3C-A695-96BF5DA3651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13FB1A2-D420-43E7-89A7-6B3CFFFAEF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="117">
   <si>
     <t>Topic:</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1044,7 @@
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1055,7 +1055,9 @@
       <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -1064,7 +1066,9 @@
       <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -1073,7 +1077,9 @@
       <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
@@ -1082,7 +1088,9 @@
       <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
@@ -1091,7 +1099,9 @@
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -1100,7 +1110,9 @@
       <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
@@ -1109,7 +1121,9 @@
       <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
@@ -1118,7 +1132,9 @@
       <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -1127,7 +1143,9 @@
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13FB1A2-D420-43E7-89A7-6B3CFFFAEF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF40FFC-2627-48B7-9391-46EC24BD54A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
   <si>
     <t>Topic:</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="98" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,7 +1159,9 @@
       <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
@@ -1168,7 +1170,9 @@
       <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
@@ -1177,7 +1181,9 @@
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF40FFC-2627-48B7-9391-46EC24BD54A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54806582-3A33-435A-B068-85D8623A8796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="117">
   <si>
     <t>Topic:</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1197,9 @@
       <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
@@ -1206,7 +1208,9 @@
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54806582-3A33-435A-B068-85D8623A8796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7413F6-AAD8-4360-ADFF-1DCEE00F93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
   <si>
     <t>Topic:</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1224,9 @@
       <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
@@ -1233,7 +1235,9 @@
       <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
@@ -1242,7 +1246,9 @@
       <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
@@ -1251,7 +1257,9 @@
       <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
@@ -1260,7 +1268,9 @@
       <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
@@ -1269,7 +1279,9 @@
       <c r="B52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
@@ -1278,7 +1290,9 @@
       <c r="B53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
@@ -1287,7 +1301,9 @@
       <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7413F6-AAD8-4360-ADFF-1DCEE00F93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15A5EB-7D1E-49DA-BEB6-967815281C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="117">
   <si>
     <t>Topic:</t>
   </si>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="98" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,7 +1706,9 @@
       <c r="B101" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
@@ -1715,7 +1717,9 @@
       <c r="B102" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
@@ -1724,8 +1728,8 @@
       <c r="B103" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>115</v>
+      <c r="C103" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1735,7 +1739,9 @@
       <c r="B104" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
@@ -1744,7 +1750,9 @@
       <c r="B105" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
@@ -1753,7 +1761,9 @@
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
@@ -1762,8 +1772,8 @@
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>115</v>
+      <c r="C107" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.35">

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE15A5EB-7D1E-49DA-BEB6-967815281C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF2452-AF16-4BCA-A26F-EA163A779E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
   <si>
     <t>Topic:</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -754,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C118"/>
+  <dimension ref="A2:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="98" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -1305,91 +1308,112 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C56" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C57" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C58" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C59" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C60" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C61" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C62" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C63" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
@@ -1548,7 +1572,9 @@
       <c r="B83" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
@@ -1557,7 +1583,9 @@
       <c r="B84" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
@@ -1566,7 +1594,9 @@
       <c r="B85" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
@@ -1575,7 +1605,9 @@
       <c r="B86" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
@@ -1584,7 +1616,9 @@
       <c r="B87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
@@ -1593,7 +1627,9 @@
       <c r="B88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
@@ -1602,7 +1638,9 @@
       <c r="B89" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
@@ -1611,7 +1649,9 @@
       <c r="B90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
@@ -1620,7 +1660,9 @@
       <c r="B91" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF2452-AF16-4BCA-A26F-EA163A779E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D5E96-A02A-47F5-B8ED-1C6C4D693AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="118">
   <si>
     <t>Topic:</t>
   </si>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="98" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,7 +1427,9 @@
       <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
@@ -1436,7 +1438,9 @@
       <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
@@ -1445,7 +1449,9 @@
       <c r="B68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
@@ -1454,7 +1460,9 @@
       <c r="B69" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
@@ -1463,7 +1471,9 @@
       <c r="B70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D5E96-A02A-47F5-B8ED-1C6C4D693AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CD3A3-C453-4BF0-A335-A03D52DC39D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="118">
   <si>
     <t>Topic:</t>
   </si>
@@ -757,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E118"/>
+  <dimension ref="A2:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="77" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1487,9 @@
       <c r="B72" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
@@ -1496,7 +1498,9 @@
       <c r="B73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
@@ -1505,7 +1509,9 @@
       <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
@@ -1514,25 +1520,31 @@
       <c r="B75" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
@@ -1541,46 +1553,53 @@
       <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A79" s="4"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>116</v>
@@ -1591,7 +1610,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>116</v>
@@ -1602,7 +1621,7 @@
         <v>94</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>116</v>
@@ -1613,7 +1632,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>116</v>
@@ -1624,7 +1643,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>116</v>
@@ -1635,7 +1654,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>116</v>
@@ -1646,40 +1665,34 @@
         <v>94</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C92" s="3"/>
     </row>
@@ -1688,7 +1701,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -1697,7 +1710,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -1706,7 +1719,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C95" s="3"/>
     </row>
@@ -1715,48 +1728,54 @@
         <v>94</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>116</v>
@@ -1767,7 +1786,7 @@
         <v>95</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>116</v>
@@ -1778,7 +1797,7 @@
         <v>95</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>116</v>
@@ -1789,7 +1808,7 @@
         <v>95</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>116</v>
@@ -1800,122 +1819,89 @@
         <v>95</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A110" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>109</v>
+        <v>22</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A114" s="4"/>
       <c r="B114" s="5" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A115" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>20</v>
+      <c r="A115" s="4"/>
+      <c r="B115" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A116" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A117" s="4"/>
-      <c r="B117" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A118" s="4"/>
-      <c r="B118" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C118" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1926,7 +1912,7 @@
     <hyperlink ref="B8" r:id="rId5" xr:uid="{90686927-5AE7-4C35-937F-D7641930DAFA}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{D91C59FC-1494-4E13-992A-6F96B7FA1896}"/>
     <hyperlink ref="B10" r:id="rId7" xr:uid="{568B8125-7A15-40AB-AC22-52376BC21409}"/>
-    <hyperlink ref="B114" r:id="rId8" xr:uid="{4593A8E9-4BD3-4AD4-BC5D-05E46F052961}"/>
+    <hyperlink ref="B111" r:id="rId8" xr:uid="{4593A8E9-4BD3-4AD4-BC5D-05E46F052961}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{6638318D-0827-4A4A-933B-131E66DFE659}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{F5A43BCF-D12E-422D-9E2F-21729C40D55B}"/>
     <hyperlink ref="B14" r:id="rId11" xr:uid="{3814557D-89B7-4028-811B-AB13651B8942}"/>
@@ -1979,42 +1965,43 @@
     <hyperlink ref="B68" r:id="rId58" xr:uid="{A71144EC-CB8F-4747-B26D-F1F19EDBD21A}"/>
     <hyperlink ref="B69" r:id="rId59" xr:uid="{BC084D69-EB33-4676-8FE9-E5116CA210B2}"/>
     <hyperlink ref="B70" r:id="rId60" xr:uid="{15DDBDAD-5191-4C1B-82AC-5BEA7AC71045}"/>
-    <hyperlink ref="B80" r:id="rId61" xr:uid="{0CA7BBE8-162C-4BFC-A10A-0AB20DF90D77}"/>
-    <hyperlink ref="B81" r:id="rId62" xr:uid="{ACFA77A6-FBCB-4F4C-ADB6-48DD92D54F02}"/>
-    <hyperlink ref="B85" r:id="rId63" xr:uid="{05D547AE-DFB1-42F3-8628-7D042584D480}"/>
-    <hyperlink ref="B86" r:id="rId64" xr:uid="{B7BA3507-37D3-4FED-BEE9-1366752408BB}"/>
-    <hyperlink ref="B87" r:id="rId65" xr:uid="{21B0EE3F-842B-46DA-8B4B-63AF7FE814B9}"/>
-    <hyperlink ref="B99" r:id="rId66" xr:uid="{5DF1CB53-4688-4820-AA22-0F1D72A480D9}"/>
-    <hyperlink ref="B88" r:id="rId67" xr:uid="{F611E792-384E-4506-A87B-0311E9A46AC1}"/>
-    <hyperlink ref="B89" r:id="rId68" xr:uid="{3B670E7A-E092-44D0-A947-B56DE3193D29}"/>
-    <hyperlink ref="B84" r:id="rId69" xr:uid="{3AD3A2F0-35B1-4E93-984C-C5B379E438C1}"/>
-    <hyperlink ref="B83" r:id="rId70" xr:uid="{75581CC2-B569-4E72-9539-A99EEBD0951F}"/>
-    <hyperlink ref="B90" r:id="rId71" xr:uid="{648E778F-AF60-4AB7-96B6-DF6DD3299E89}"/>
-    <hyperlink ref="B91" r:id="rId72" xr:uid="{4A037864-7E45-4E64-ABBE-C2F0869B20D5}"/>
-    <hyperlink ref="B92" r:id="rId73" xr:uid="{F1297AEA-CE21-4F8B-9502-01F667E4A4F3}"/>
-    <hyperlink ref="B93" r:id="rId74" xr:uid="{06FFC7C7-57A4-41F2-BE9B-EE4A19926770}"/>
-    <hyperlink ref="B94" r:id="rId75" xr:uid="{1FB33F51-FBFA-4AC1-9566-336D25FB0687}"/>
-    <hyperlink ref="B95" r:id="rId76" xr:uid="{C0ADA11A-BF0E-4E12-AF9B-C8609CB303D3}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{C9FC57CB-639B-4D82-8374-215097B38647}"/>
-    <hyperlink ref="B98" r:id="rId78" xr:uid="{1124989C-2AAE-4C33-8B7A-49A32CADF336}"/>
-    <hyperlink ref="B97" r:id="rId79" xr:uid="{A2C821D9-883A-4822-BE4C-4613D6879623}"/>
-    <hyperlink ref="B101" r:id="rId80" xr:uid="{1F09E115-71B1-42FC-B13B-2DD3306A8716}"/>
-    <hyperlink ref="B102" r:id="rId81" xr:uid="{965C21D6-9BB5-46B7-B18D-376425B72C9D}"/>
-    <hyperlink ref="B104" r:id="rId82" xr:uid="{BFEE80B2-CA7B-4B48-B685-4FE5B12F3B54}"/>
-    <hyperlink ref="B105" r:id="rId83" xr:uid="{F9CE39C9-79A8-46F6-9893-C582C1B9E792}"/>
-    <hyperlink ref="B79" r:id="rId84" xr:uid="{D954663E-2FDF-4D10-8ACA-55DAC7FA40B9}"/>
-    <hyperlink ref="B77" r:id="rId85" xr:uid="{5F985B25-CB20-4D3D-8F43-AD3531C70BD7}"/>
-    <hyperlink ref="B78" r:id="rId86" xr:uid="{122008BD-89BA-43F9-84C4-6F11FB529C4A}"/>
-    <hyperlink ref="B72" r:id="rId87" display="Find Median from Data Stream" xr:uid="{1285F980-2029-495F-AB1C-83F809BA3A93}"/>
-    <hyperlink ref="B110" r:id="rId88" xr:uid="{5B1EEF26-462F-4F97-88BB-9B3D675FA6A9}"/>
-    <hyperlink ref="B111" r:id="rId89" xr:uid="{210BCAF4-5D9C-486E-8CCF-5AD499E9784B}"/>
-    <hyperlink ref="B112" r:id="rId90" xr:uid="{4D86C38E-D574-49F4-B90F-E4771E41351A}"/>
-    <hyperlink ref="B117" r:id="rId91" xr:uid="{6133DDF2-1716-4AE3-8F59-F94ABFF6FBEF}"/>
-    <hyperlink ref="B118" r:id="rId92" xr:uid="{F45A1650-6591-42B4-BDC2-6F14A8EEFD0F}"/>
-    <hyperlink ref="B103" r:id="rId93" xr:uid="{B4D36B6A-9FF2-4213-BC8F-ADE06F8F04E1}"/>
-    <hyperlink ref="B106" r:id="rId94" xr:uid="{B7849C6B-3B40-4143-A2C2-84CB92DD91CA}"/>
-    <hyperlink ref="B107" r:id="rId95" xr:uid="{A0C5868D-5727-4B14-AA83-AE2765E92382}"/>
-    <hyperlink ref="B108" r:id="rId96" xr:uid="{72C80BD8-8742-453E-8416-F7F17C9F78FD}"/>
+    <hyperlink ref="B76" r:id="rId61" xr:uid="{0CA7BBE8-162C-4BFC-A10A-0AB20DF90D77}"/>
+    <hyperlink ref="B78" r:id="rId62" xr:uid="{ACFA77A6-FBCB-4F4C-ADB6-48DD92D54F02}"/>
+    <hyperlink ref="B82" r:id="rId63" xr:uid="{05D547AE-DFB1-42F3-8628-7D042584D480}"/>
+    <hyperlink ref="B83" r:id="rId64" xr:uid="{B7BA3507-37D3-4FED-BEE9-1366752408BB}"/>
+    <hyperlink ref="B84" r:id="rId65" xr:uid="{21B0EE3F-842B-46DA-8B4B-63AF7FE814B9}"/>
+    <hyperlink ref="B96" r:id="rId66" xr:uid="{5DF1CB53-4688-4820-AA22-0F1D72A480D9}"/>
+    <hyperlink ref="B85" r:id="rId67" xr:uid="{F611E792-384E-4506-A87B-0311E9A46AC1}"/>
+    <hyperlink ref="B86" r:id="rId68" xr:uid="{3B670E7A-E092-44D0-A947-B56DE3193D29}"/>
+    <hyperlink ref="B81" r:id="rId69" xr:uid="{3AD3A2F0-35B1-4E93-984C-C5B379E438C1}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{75581CC2-B569-4E72-9539-A99EEBD0951F}"/>
+    <hyperlink ref="B87" r:id="rId71" xr:uid="{648E778F-AF60-4AB7-96B6-DF6DD3299E89}"/>
+    <hyperlink ref="B88" r:id="rId72" xr:uid="{4A037864-7E45-4E64-ABBE-C2F0869B20D5}"/>
+    <hyperlink ref="B89" r:id="rId73" xr:uid="{F1297AEA-CE21-4F8B-9502-01F667E4A4F3}"/>
+    <hyperlink ref="B90" r:id="rId74" xr:uid="{06FFC7C7-57A4-41F2-BE9B-EE4A19926770}"/>
+    <hyperlink ref="B91" r:id="rId75" xr:uid="{1FB33F51-FBFA-4AC1-9566-336D25FB0687}"/>
+    <hyperlink ref="B92" r:id="rId76" xr:uid="{C0ADA11A-BF0E-4E12-AF9B-C8609CB303D3}"/>
+    <hyperlink ref="B93" r:id="rId77" xr:uid="{C9FC57CB-639B-4D82-8374-215097B38647}"/>
+    <hyperlink ref="B95" r:id="rId78" xr:uid="{1124989C-2AAE-4C33-8B7A-49A32CADF336}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{A2C821D9-883A-4822-BE4C-4613D6879623}"/>
+    <hyperlink ref="B98" r:id="rId80" xr:uid="{1F09E115-71B1-42FC-B13B-2DD3306A8716}"/>
+    <hyperlink ref="B99" r:id="rId81" xr:uid="{965C21D6-9BB5-46B7-B18D-376425B72C9D}"/>
+    <hyperlink ref="B101" r:id="rId82" xr:uid="{BFEE80B2-CA7B-4B48-B685-4FE5B12F3B54}"/>
+    <hyperlink ref="B102" r:id="rId83" xr:uid="{F9CE39C9-79A8-46F6-9893-C582C1B9E792}"/>
+    <hyperlink ref="B77" r:id="rId84" xr:uid="{D954663E-2FDF-4D10-8ACA-55DAC7FA40B9}"/>
+    <hyperlink ref="B72" r:id="rId85" xr:uid="{1285F980-2029-495F-AB1C-83F809BA3A93}"/>
+    <hyperlink ref="B107" r:id="rId86" xr:uid="{5B1EEF26-462F-4F97-88BB-9B3D675FA6A9}"/>
+    <hyperlink ref="B108" r:id="rId87" xr:uid="{210BCAF4-5D9C-486E-8CCF-5AD499E9784B}"/>
+    <hyperlink ref="B109" r:id="rId88" xr:uid="{4D86C38E-D574-49F4-B90F-E4771E41351A}"/>
+    <hyperlink ref="B114" r:id="rId89" xr:uid="{6133DDF2-1716-4AE3-8F59-F94ABFF6FBEF}"/>
+    <hyperlink ref="B115" r:id="rId90" xr:uid="{F45A1650-6591-42B4-BDC2-6F14A8EEFD0F}"/>
+    <hyperlink ref="B100" r:id="rId91" xr:uid="{B4D36B6A-9FF2-4213-BC8F-ADE06F8F04E1}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{B7849C6B-3B40-4143-A2C2-84CB92DD91CA}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{A0C5868D-5727-4B14-AA83-AE2765E92382}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{72C80BD8-8742-453E-8416-F7F17C9F78FD}"/>
+    <hyperlink ref="B73" r:id="rId95" xr:uid="{8F86EB8A-8039-4009-81CC-CED94E270DA7}"/>
+    <hyperlink ref="B74" r:id="rId96" xr:uid="{7FE08B77-5540-49A4-9825-D4576D115106}"/>
+    <hyperlink ref="B75" r:id="rId97" xr:uid="{519326BC-FE43-4663-A66E-8D8BB53D25AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Revise 100.XLSX
+++ b/Revise 100.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\OneDrive\Documents\DSA Master\DSA_Revise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CD3A3-C453-4BF0-A335-A03D52DC39D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EC53C-4820-4F1C-B24C-7F1D613967AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="117">
   <si>
     <t>Topic:</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>Min cost to connect all points</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Done</t>
@@ -759,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="77" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="146" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -802,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -813,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -824,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -835,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -846,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -857,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -873,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -884,7 +881,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -895,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -906,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -917,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -928,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -939,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -955,7 +952,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -966,7 +963,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -977,7 +974,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -988,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -999,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1010,7 +1007,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1021,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1032,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1048,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1059,7 +1056,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1070,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1081,7 +1078,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1092,7 +1089,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1103,7 +1100,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1114,7 +1111,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1125,7 +1122,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1136,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1147,7 +1144,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1163,7 +1160,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1174,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1185,7 +1182,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1201,7 +1198,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1212,7 +1209,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1228,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1239,7 +1236,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1250,7 +1247,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1261,7 +1258,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1272,7 +1269,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1283,7 +1280,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1294,7 +1291,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1305,7 +1302,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1321,7 +1318,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1332,7 +1329,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1343,7 +1340,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1354,7 +1351,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1365,7 +1362,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1376,7 +1373,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1387,7 +1384,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1398,10 +1395,10 @@
         <v>66</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="s">
         <v>116</v>
-      </c>
-      <c r="E63" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -1412,7 +1409,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1428,7 +1425,7 @@
         <v>70</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1439,7 +1436,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1450,7 +1447,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1461,7 +1458,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1472,7 +1469,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1488,7 +1485,7 @@
         <v>101</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1499,7 +1496,7 @@
         <v>103</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1510,7 +1507,7 @@
         <v>104</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1521,7 +1518,7 @@
         <v>102</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1532,7 +1529,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1543,7 +1540,7 @@
         <v>105</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1554,7 +1551,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1569,7 +1566,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1580,7 +1577,7 @@
         <v>49</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1591,7 +1588,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1602,7 +1599,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1613,7 +1610,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1624,7 +1621,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1635,7 +1632,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1646,7 +1643,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1657,7 +1654,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1665,54 +1662,66 @@
         <v>94</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
@@ -1734,7 +1743,6 @@
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1745,7 +1753,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1756,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1767,7 +1775,7 @@
         <v>112</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1778,7 +1786,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1789,7 +1797,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1800,7 +1808,7 @@
         <v>113</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1811,7 +1819,7 @@
         <v>114</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -1821,9 +1829,7 @@
       <c r="B105" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
@@ -1977,13 +1983,13 @@
     <hyperlink ref="B80" r:id="rId70" xr:uid="{75581CC2-B569-4E72-9539-A99EEBD0951F}"/>
     <hyperlink ref="B87" r:id="rId71" xr:uid="{648E778F-AF60-4AB7-96B6-DF6DD3299E89}"/>
     <hyperlink ref="B88" r:id="rId72" xr:uid="{4A037864-7E45-4E64-ABBE-C2F0869B20D5}"/>
-    <hyperlink ref="B89" r:id="rId73" xr:uid="{F1297AEA-CE21-4F8B-9502-01F667E4A4F3}"/>
-    <hyperlink ref="B90" r:id="rId74" xr:uid="{06FFC7C7-57A4-41F2-BE9B-EE4A19926770}"/>
-    <hyperlink ref="B91" r:id="rId75" xr:uid="{1FB33F51-FBFA-4AC1-9566-336D25FB0687}"/>
-    <hyperlink ref="B92" r:id="rId76" xr:uid="{C0ADA11A-BF0E-4E12-AF9B-C8609CB303D3}"/>
-    <hyperlink ref="B93" r:id="rId77" xr:uid="{C9FC57CB-639B-4D82-8374-215097B38647}"/>
+    <hyperlink ref="B94" r:id="rId73" xr:uid="{F1297AEA-CE21-4F8B-9502-01F667E4A4F3}"/>
+    <hyperlink ref="B89" r:id="rId74" xr:uid="{06FFC7C7-57A4-41F2-BE9B-EE4A19926770}"/>
+    <hyperlink ref="B90" r:id="rId75" xr:uid="{1FB33F51-FBFA-4AC1-9566-336D25FB0687}"/>
+    <hyperlink ref="B91" r:id="rId76" xr:uid="{C0ADA11A-BF0E-4E12-AF9B-C8609CB303D3}"/>
+    <hyperlink ref="B92" r:id="rId77" xr:uid="{C9FC57CB-639B-4D82-8374-215097B38647}"/>
     <hyperlink ref="B95" r:id="rId78" xr:uid="{1124989C-2AAE-4C33-8B7A-49A32CADF336}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{A2C821D9-883A-4822-BE4C-4613D6879623}"/>
+    <hyperlink ref="B93" r:id="rId79" xr:uid="{A2C821D9-883A-4822-BE4C-4613D6879623}"/>
     <hyperlink ref="B98" r:id="rId80" xr:uid="{1F09E115-71B1-42FC-B13B-2DD3306A8716}"/>
     <hyperlink ref="B99" r:id="rId81" xr:uid="{965C21D6-9BB5-46B7-B18D-376425B72C9D}"/>
     <hyperlink ref="B101" r:id="rId82" xr:uid="{BFEE80B2-CA7B-4B48-B685-4FE5B12F3B54}"/>
